--- a/counts_loglikelihood_filter2.xlsx
+++ b/counts_loglikelihood_filter2.xlsx
@@ -257,7 +257,7 @@
     <t>(_in_)</t>
   </si>
   <si>
-    <t>Reference.Corpus</t>
+    <t>Vergleichskorpus</t>
   </si>
   <si>
     <t>FAZ</t>
@@ -343,7 +343,7 @@
         <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9945855270701474</v>
+        <v>9.945855270701474</v>
       </c>
     </row>
     <row r="3">
@@ -357,7 +357,7 @@
         <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3484216814576949</v>
+        <v>3.4842168145769494</v>
       </c>
     </row>
     <row r="4">
@@ -371,7 +371,7 @@
         <v>81</v>
       </c>
       <c r="D4" t="n">
-        <v>0.836212035498468</v>
+        <v>8.362120354984679</v>
       </c>
     </row>
     <row r="5">
@@ -385,7 +385,7 @@
         <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5194650523551089</v>
+        <v>5.194650523551089</v>
       </c>
     </row>
     <row r="6">
@@ -399,7 +399,7 @@
         <v>81</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05701445696580463</v>
+        <v>0.5701445696580463</v>
       </c>
     </row>
     <row r="7">
@@ -413,7 +413,7 @@
         <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5067951730293745</v>
+        <v>5.0679517302937445</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>0.031674698314335906</v>
+        <v>0.31674698314335903</v>
       </c>
     </row>
     <row r="9">
@@ -441,7 +441,7 @@
         <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>0.025339758651468723</v>
+        <v>0.25339758651468725</v>
       </c>
     </row>
     <row r="10">
@@ -455,7 +455,7 @@
         <v>81</v>
       </c>
       <c r="D10" t="n">
-        <v>0.012669879325734362</v>
+        <v>0.12669879325734362</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006334939662867181</v>
+        <v>0.06334939662867181</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>82</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3119394837401544</v>
+        <v>3.119394837401544</v>
       </c>
     </row>
     <row r="16">
@@ -539,7 +539,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>2.339546128051158</v>
+        <v>23.395461280511583</v>
       </c>
     </row>
     <row r="17">
@@ -553,7 +553,7 @@
         <v>82</v>
       </c>
       <c r="D17" t="n">
-        <v>0.46790922561023157</v>
+        <v>4.679092256102316</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>82</v>
       </c>
       <c r="D18" t="n">
-        <v>9.046245028464478</v>
+        <v>90.46245028464477</v>
       </c>
     </row>
     <row r="19">
@@ -595,7 +595,7 @@
         <v>82</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9358184512204631</v>
+        <v>9.358184512204632</v>
       </c>
     </row>
     <row r="21">
@@ -609,7 +609,7 @@
         <v>82</v>
       </c>
       <c r="D21" t="n">
-        <v>1.4037276768306948</v>
+        <v>14.037276768306947</v>
       </c>
     </row>
     <row r="22">
@@ -637,7 +637,7 @@
         <v>82</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1559697418700772</v>
+        <v>1.559697418700772</v>
       </c>
     </row>
     <row r="24">
@@ -665,7 +665,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6238789674803088</v>
+        <v>6.238789674803088</v>
       </c>
     </row>
     <row r="26">
@@ -679,7 +679,7 @@
         <v>82</v>
       </c>
       <c r="D26" t="n">
-        <v>1.8716369024409263</v>
+        <v>18.716369024409264</v>
       </c>
     </row>
     <row r="27">
@@ -707,7 +707,7 @@
         <v>83</v>
       </c>
       <c r="D28" t="n">
-        <v>1.9200000000000002</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="29">
@@ -721,7 +721,7 @@
         <v>83</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9600000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="30">
@@ -749,7 +749,7 @@
         <v>83</v>
       </c>
       <c r="D31" t="n">
-        <v>7.680000000000001</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="32">
@@ -777,7 +777,7 @@
         <v>83</v>
       </c>
       <c r="D33" t="n">
-        <v>3.8400000000000003</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="34">
@@ -791,7 +791,7 @@
         <v>83</v>
       </c>
       <c r="D34" t="n">
-        <v>0.32</v>
+        <v>3.1999999999999997</v>
       </c>
     </row>
     <row r="35">
@@ -847,7 +847,7 @@
         <v>83</v>
       </c>
       <c r="D38" t="n">
-        <v>1.28</v>
+        <v>12.799999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -861,7 +861,7 @@
         <v>83</v>
       </c>
       <c r="D39" t="n">
-        <v>2.88</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="40">
@@ -889,7 +889,7 @@
         <v>84</v>
       </c>
       <c r="D41" t="n">
-        <v>1.9686331124089507</v>
+        <v>19.686331124089506</v>
       </c>
     </row>
     <row r="42">
@@ -903,7 +903,7 @@
         <v>84</v>
       </c>
       <c r="D42" t="n">
-        <v>1.8045803530415383</v>
+        <v>18.04580353041538</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>84</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0663429358881817</v>
+        <v>10.663429358881817</v>
       </c>
     </row>
     <row r="44">
@@ -931,7 +931,7 @@
         <v>84</v>
       </c>
       <c r="D44" t="n">
-        <v>5.987925716910558</v>
+        <v>59.879257169105585</v>
       </c>
     </row>
     <row r="45">
@@ -945,7 +945,7 @@
         <v>84</v>
       </c>
       <c r="D45" t="n">
-        <v>0.16405275936741257</v>
+        <v>1.6405275936741257</v>
       </c>
     </row>
     <row r="46">
@@ -959,7 +959,7 @@
         <v>84</v>
       </c>
       <c r="D46" t="n">
-        <v>1.394448454623007</v>
+        <v>13.944484546230068</v>
       </c>
     </row>
     <row r="47">
@@ -973,7 +973,7 @@
         <v>84</v>
       </c>
       <c r="D47" t="n">
-        <v>2.1326858717763635</v>
+        <v>21.326858717763635</v>
       </c>
     </row>
     <row r="48">
@@ -1001,7 +1001,7 @@
         <v>84</v>
       </c>
       <c r="D49" t="n">
-        <v>0.32810551873482513</v>
+        <v>3.2810551873482514</v>
       </c>
     </row>
     <row r="50">
@@ -1029,7 +1029,7 @@
         <v>84</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8202637968370629</v>
+        <v>8.20263796837063</v>
       </c>
     </row>
     <row r="52">
@@ -1043,7 +1043,7 @@
         <v>84</v>
       </c>
       <c r="D52" t="n">
-        <v>2.8709232889297196</v>
+        <v>28.709232889297198</v>
       </c>
     </row>
     <row r="53">
@@ -1057,7 +1057,7 @@
         <v>84</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6562110374696503</v>
+        <v>6.562110374696503</v>
       </c>
     </row>
     <row r="54">
@@ -1071,7 +1071,7 @@
         <v>85</v>
       </c>
       <c r="D54" t="n">
-        <v>1.5921031682853048</v>
+        <v>15.92103168285305</v>
       </c>
     </row>
     <row r="55">
@@ -1085,7 +1085,7 @@
         <v>85</v>
       </c>
       <c r="D55" t="n">
-        <v>1.8574536963328556</v>
+        <v>18.574536963328555</v>
       </c>
     </row>
     <row r="56">
@@ -1099,7 +1099,7 @@
         <v>85</v>
       </c>
       <c r="D56" t="n">
-        <v>1.326752640237754</v>
+        <v>13.267526402377541</v>
       </c>
     </row>
     <row r="57">
@@ -1113,7 +1113,7 @@
         <v>85</v>
       </c>
       <c r="D57" t="n">
-        <v>6.633763201188771</v>
+        <v>66.3376320118877</v>
       </c>
     </row>
     <row r="58">
@@ -1141,7 +1141,7 @@
         <v>85</v>
       </c>
       <c r="D59" t="n">
-        <v>3.7149073926657112</v>
+        <v>37.14907392665711</v>
       </c>
     </row>
     <row r="60">
@@ -1155,7 +1155,7 @@
         <v>85</v>
       </c>
       <c r="D60" t="n">
-        <v>1.0614021121902033</v>
+        <v>10.614021121902033</v>
       </c>
     </row>
     <row r="61">
@@ -1169,7 +1169,7 @@
         <v>85</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5307010560951017</v>
+        <v>5.307010560951016</v>
       </c>
     </row>
     <row r="62">
@@ -1211,7 +1211,7 @@
         <v>85</v>
       </c>
       <c r="D64" t="n">
-        <v>1.8574536963328556</v>
+        <v>18.574536963328555</v>
       </c>
     </row>
     <row r="65">
@@ -1225,7 +1225,7 @@
         <v>85</v>
       </c>
       <c r="D65" t="n">
-        <v>1.0614021121902033</v>
+        <v>10.614021121902033</v>
       </c>
     </row>
     <row r="66">
